--- a/excel/zuhar-timings.xlsx
+++ b/excel/zuhar-timings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Falah-E-Kounaain\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D377555C-6DF2-4BD1-9F47-39FE2BE8E70E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FFA3E9-BB13-47D0-8AA0-E905A04B3B7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>masjid</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Habeeb Masjid</t>
-  </si>
-  <si>
-    <t>Azad Nagar</t>
   </si>
   <si>
     <t>Masjid-e-Shukoor</t>
@@ -393,7 +390,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,17 +454,9 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-10</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -475,7 +464,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -483,7 +472,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>30</v>
@@ -491,7 +480,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>40</v>
